--- a/src/lithium/data/Megacompile.xlsx
+++ b/src/lithium/data/Megacompile.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29560" windowHeight="19060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3921,11 +3922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143122424"/>
-        <c:axId val="2128627976"/>
+        <c:axId val="2094986280"/>
+        <c:axId val="2094989272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143122424"/>
+        <c:axId val="2094986280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3935,12 +3936,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128627976"/>
+        <c:crossAx val="2094989272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128627976"/>
+        <c:axId val="2094989272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +3952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143122424"/>
+        <c:crossAx val="2094986280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3977,16 +3978,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/src/lithium/data/Megacompile.xlsx
+++ b/src/lithium/data/Megacompile.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29560" windowHeight="19060" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="29600" windowHeight="19060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="3mM" sheetId="2" r:id="rId2"/>
+    <sheet name="10mM" sheetId="3" r:id="rId3"/>
+    <sheet name="30mM" sheetId="4" r:id="rId4"/>
+    <sheet name="60mM" sheetId="5" r:id="rId5"/>
+    <sheet name="90mM" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +66,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,8 +202,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -197,7 +272,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="53">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3922,11 +4049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094986280"/>
-        <c:axId val="2094989272"/>
+        <c:axId val="2121489368"/>
+        <c:axId val="2121486328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094986280"/>
+        <c:axId val="2121489368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,12 +4063,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094989272"/>
+        <c:crossAx val="2121486328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094989272"/>
+        <c:axId val="2121486328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,7 +4079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094986280"/>
+        <c:crossAx val="2121489368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4333,8 +4460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J63" activeCellId="5" sqref="A2:A63 B2:B63 D2:D63 F2:F63 H2:H63 J2:J63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6396,6 +6523,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6403,4 +6531,3140 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>5.9161399131549395</v>
+      </c>
+      <c r="C1" s="3">
+        <v>8.268506783276135E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.9210594869895719</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.3262685463829497E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.9201780354285747</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.9462048507147808E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.9222881145156521</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.4058814382487866E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.9257468021080548</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.0065310431138691E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.9296513736340764</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.8121264825715521E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.9337230452274223</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.7286350349147666E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.9393016088314257</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0084872286910273E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5.9456100529279592</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.233830256738257E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.9571256907362287</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.3436489999824443E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.9640832346981014</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.2483776316259791E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.9741136231029284</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.5437679232055863E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5.9837524836650307</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.6634987265002548E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5.9928047221058929</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.8241453852574044E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6.0037400223411304</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.8099384863711297E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6.0134262828718263</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.7792608467140578E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6.0212798192071606</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.0026771355132512E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6.0302331443750692</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.0087098009073597E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6.0382851896593994</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.1007543210450619E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.0470024794526029</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.9217452556182665E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6.0537151222742569</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.1659078022943971E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>105</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6.0623430782439804</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.0936106321374878E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6.0699664229580552</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.1385819189484939E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>115</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6.0757138263318087</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.0218650768881186E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>120</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6.0854171997838531</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.0713396990421813E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>125</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6.0916713582160984</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.9491396084309488E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>130</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6.0981590271413619</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.9053309317408635E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>135</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6.1037982892432696</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.9451828634056052E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>140</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6.1094075738575411</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.8067350875475879E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>145</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.1134269944161703</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.8673706573850393E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>150</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6.1182110250730428</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.8370292687699984E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>155</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6.1237817802757979</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.7678293584438204E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>160</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6.1273536020121488</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.9771860200173061E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>165</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.1303482059718428</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1.8477346715764582E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>170</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6.1355730465154199</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.8579601288388339E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>175</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6.1413024465425865</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.7190101969695861E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>180</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6.1431342471367643</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.7768148584653223E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>185</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6.1499861738122261</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.496563215024627E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>190</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6.1525180439489819</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.5487080230327443E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>195</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6.1558052672957952</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.4459666585666438E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>200</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.1595662727002054</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.4358049410757082E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>205</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.1600804166190208</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.372826428150002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>210</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6.1634294208126565</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.389128663582502E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>215</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6.167295937386565</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.7150342246620272E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>220</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6.1712220283742276</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.5444884149587352E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>225</v>
+      </c>
+      <c r="B46" s="3">
+        <v>6.1693787220094336</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.7458753763082698E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>230</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6.1729855894523791</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.7344609302014768E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>235</v>
+      </c>
+      <c r="B48" s="3">
+        <v>6.1752532509431584</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1.8540746170364972E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>240</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6.1769754472093581</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.7781932226302859E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>245</v>
+      </c>
+      <c r="B50" s="3">
+        <v>6.182028507696085</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.8549760670821307E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>250</v>
+      </c>
+      <c r="B51" s="3">
+        <v>6.186654592102772</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2.0851734286287799E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>255</v>
+      </c>
+      <c r="B52" s="3">
+        <v>6.1901881538180508</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1.8794422452753784E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>260</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6.153047262574951</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1.9632534522332271E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>265</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6.1984177123751323</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2.6280247985370434E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>270</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6.1967369068874261</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2.5777064178445101E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>275</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6.1982093910680627</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2.7346313539714881E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>280</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6.2018908706095006</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2.7970511839781782E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>285</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6.2005793835212666</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2.7550185522177716E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>290</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6.2033394955446628</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2.7428770707327021E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>295</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6.2046039800338875</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2.593151775504788E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16" thickBot="1">
+      <c r="A61" s="2">
+        <v>300</v>
+      </c>
+      <c r="B61" s="6">
+        <v>6.2041117383121014</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2.7234267534769686E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>6.0103828190308093</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0.10452894504472322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5.9948201106276446</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.9490790264492442E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5.9721527984675138</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.7115542753443818E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.9598686264990395</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.4124439614961664E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.9561705097096622</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.3571858242855156E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.9608934095514421</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.8348451234766878E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5.9735914465041686</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.3273445736882681E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5.9881512223722009</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.5732185901063871E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6.0039738270097232</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.7441861845982716E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6.0215702072742534</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.7994702208722623E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6.0391816661604967</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4.5227277624039941E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6.0627192719145224</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.29985579312442E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6.0902948928768534</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5.0154651051625879E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4">
+        <v>6.0994556115949532</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.1488989253017743E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6.1174668839284614</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.971370549344639E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6.132026743602073</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.8963962431379374E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>80</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6.1440772828901915</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.6582362479985468E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4">
+        <v>6.1550490730018437</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.5096667225809175E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4">
+        <v>6.1637683373144858</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.3175776044296716E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4">
+        <v>6.1720823960108042</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3.2769860757306965E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6.1791691872697614</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3.2566284202098776E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>105</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6.1860058893555863</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.2048400327265497E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6.1928436038755388</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.0989941474716672E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>115</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6.1959819774644371</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.1679413993695359E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>120</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6.2018187415517518</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.1774870170968549E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>125</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6.2063614912542491</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3.236383943762567E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>130</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6.213955985876682</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3.7746237750591216E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>135</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6.2210354518494988</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.9583073424761854E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>140</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6.2248795180694341</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3.8812304398001485E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>145</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6.2302175604763921</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.43216666714014E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6.2356502975127928</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3.8187588012406543E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>155</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6.2408581903234897</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.7989133599633247E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>160</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.2463763154781358</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3.8565613427855749E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>165</v>
+      </c>
+      <c r="B34" s="4">
+        <v>6.2512625029210174</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3.3392967424922745E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>170</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.2567020182628656</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.8989345153420805E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>175</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6.2594219598753043</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3.8243569244034221E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>180</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6.2491023401524588</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4.5025323384130643E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>185</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6.2817675517367286</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3.6715802437466992E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>190</v>
+      </c>
+      <c r="B39" s="4">
+        <v>6.2895728809498177</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4.888870577295612E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>195</v>
+      </c>
+      <c r="B40" s="4">
+        <v>6.3024687674129849</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3.6297618317303722E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>200</v>
+      </c>
+      <c r="B41" s="4">
+        <v>6.2666169936869629</v>
+      </c>
+      <c r="C41" s="4">
+        <v>4.2345829117362968E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>205</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6.3017799680721236</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5.2689846927256159E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>210</v>
+      </c>
+      <c r="B43" s="4">
+        <v>6.3045416947995223</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.7215883387190708E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>215</v>
+      </c>
+      <c r="B44" s="4">
+        <v>6.3164087167262117</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3.8431384269276392E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>220</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6.2976200404976881</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4.1677109010231923E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>5.911038492635015</v>
+      </c>
+      <c r="C1" s="3">
+        <v>5.2991620135960683E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.9110371532704864</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.975651014146279E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.925181589467015</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.1597394545045712E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.9507180811567615</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.27796208053626E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.9860870604697443</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.3270957127969486E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.0311691604186288</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.4349320731753218E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6.0777316640996739</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.3678752581704093E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.1316799557943842</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.1970368531996053E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.1781512207274112</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.3735102925677785E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.2179246727885324</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.4900233064221552E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6.2478875308439461</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.6634395142183706E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6.2729062912901385</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.8130791598121362E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6.295814313292686</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.0703139862153261E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6.3135159173401707</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.2587009047743682E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6.3261427316361738</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.2977955042730428E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6.3356984577826463</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.3657281212633326E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6.3449976891508104</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.3531368857911485E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6.3549449029252383</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.3521768995149277E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6.3642128562213802</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.5085897701233605E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.3713418189296744</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.504262786997255E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6.3773617699946268</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.7555173908293915E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>105</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6.379916364403698</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.8299351196114444E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6.388845395299052</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.8261871745187947E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>115</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6.390787326279491</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.8773652058014649E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>120</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6.3987865467190508</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.5729699606991537E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>125</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6.4033297125620008</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.653624715175164E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>130</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6.4131953499721073</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.1171811384072542E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>135</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6.4172755408287374</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.1618740251484603E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>140</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6.4214280170083455</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.9990402422355617E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>145</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.427763884802939</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.2495689991377858E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>150</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6.4360201534583839</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3.6413659883817388E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>155</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6.439819259813234</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3.660410979125981E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>160</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6.4459911896234807</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.6579556101141811E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>165</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.4525505541638246</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4.7335336127455101E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>170</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6.4545523429564664</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.945262222718026E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>175</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6.4688629273468559</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4.0194672521406481E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>180</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6.4711279127309576</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5.0712481809901205E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>185</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6.4785555534135169</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5.2008770799638934E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>190</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6.4729216492241273</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4.4375297227656901E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>195</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6.4943238864557662</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4.4127348872640332E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>200</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.4937110780900831</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5.4557173099816357E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>205</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.4981493236033536</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5.2976729691009881E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>210</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6.4960679968904333</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4.4915613890300313E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>215</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6.5504907606862872</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4.2470234409877988E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>220</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6.561713666193798</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6.0168914250970727E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>225</v>
+      </c>
+      <c r="B46" s="3">
+        <v>6.5240058382082537</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5.4796926500675185E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>230</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6.6216773075656814</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3.1367250966280985E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>235</v>
+      </c>
+      <c r="B48" s="3">
+        <v>6.6333439848469151</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2.632802201997465E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>5.9074675368559548</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3.1941744727335391E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5.9133349181782746</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.1536703318676418E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5.9467270794840452</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.8826610644458957E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.9875049252246058</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.8316284619927302E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.0156972738968122</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0252745410179146E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6.0822295845475578</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.3378809131810808E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.1342429105103369</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.8268259453821874E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6.182308501295303</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.0399111330515251E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6.2122129257915644</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.6974156123132734E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6.2629633143554004</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.3488454967817694E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6.281000781202482</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.3008912657104035E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6.3068161140408838</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.3256126690980858E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6.3254940797666457</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.4682271661658282E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4">
+        <v>6.345116555852405</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.4159482796183277E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6.3688446033826018</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.433957130135002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6.3927965694833526</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.4902501854497797E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>80</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6.4042180908520985</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.5769887661598026E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4">
+        <v>6.4162924070115634</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.5091809520220052E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4">
+        <v>6.4311572634180045</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.7466114184071197E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4">
+        <v>6.4529670128799479</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.6256896060917667E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6.4726562430019827</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.6937034598487472E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>105</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6.4911907673536362</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.9566485005259964E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6.4980105013690075</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.0103688333552399E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>115</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6.5120092210492482</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.9554103989639707E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>120</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6.5229094547003692</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2.1364383961239051E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>125</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6.5334954746516303</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.2437082447435641E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>130</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6.5454286828720578</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2.3144948428528558E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>135</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6.5586111824787503</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.526748738415753E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>140</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6.5716775959518205</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2.7415959820456262E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>145</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6.5855785498137616</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2.5591802516908221E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6.5943144795148276</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2.3940678040166315E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>155</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6.6044118746639411</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2.3857676464355135E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>160</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.6216011541497544</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.3721337101717314E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>165</v>
+      </c>
+      <c r="B34" s="4">
+        <v>6.6284230881053974</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2.3810144734253243E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>170</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.6431910778717285</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.3964625297673476E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>175</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6.654835666858502</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.8987028893190983E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>180</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6.6608165579219483</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2.6107135961511669E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>185</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6.6654143992489132</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2.6520102056970977E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>190</v>
+      </c>
+      <c r="B39" s="4">
+        <v>6.6690260497931986</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2.7234675019185861E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>195</v>
+      </c>
+      <c r="B40" s="4">
+        <v>6.679776082186514</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2.5156556008421541E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>200</v>
+      </c>
+      <c r="B41" s="4">
+        <v>6.680100212264807</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.2049799766891388E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>205</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6.6870315629746875</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3.4376238541886983E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>210</v>
+      </c>
+      <c r="B43" s="4">
+        <v>6.6940049035983717</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.2724992750456386E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>215</v>
+      </c>
+      <c r="B44" s="4">
+        <v>6.7105034977522724</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2.8105706999585919E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>220</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6.7147041577328332</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2.8999740250769679E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>225</v>
+      </c>
+      <c r="B46" s="4">
+        <v>6.7329476770874628</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2.5827316404878561E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>230</v>
+      </c>
+      <c r="B47" s="4">
+        <v>6.7458896295927957</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2.1215799732018412E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>235</v>
+      </c>
+      <c r="B48" s="4">
+        <v>6.7608903683309238</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1.878245687890168E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>240</v>
+      </c>
+      <c r="B49" s="4">
+        <v>6.7430108022529618</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2.3705524145899236E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>245</v>
+      </c>
+      <c r="B50" s="4">
+        <v>6.7470841032505264</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2.2681092216022859E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>250</v>
+      </c>
+      <c r="B51" s="4">
+        <v>6.7489281967490058</v>
+      </c>
+      <c r="C51" s="4">
+        <v>2.5749461256718946E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>255</v>
+      </c>
+      <c r="B52" s="4">
+        <v>6.7688276947998478</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2.4446017737396037E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>260</v>
+      </c>
+      <c r="B53" s="4">
+        <v>6.7570346009032649</v>
+      </c>
+      <c r="C53" s="4">
+        <v>3.1212740912855613E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>265</v>
+      </c>
+      <c r="B54" s="4">
+        <v>6.7584068218837929</v>
+      </c>
+      <c r="C54" s="4">
+        <v>3.2791597101318751E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>270</v>
+      </c>
+      <c r="B55" s="4">
+        <v>6.7595634240519784</v>
+      </c>
+      <c r="C55" s="4">
+        <v>3.2559784159281083E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>275</v>
+      </c>
+      <c r="B56" s="4">
+        <v>6.7785831799353167</v>
+      </c>
+      <c r="C56" s="4">
+        <v>3.3658450616249808E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>280</v>
+      </c>
+      <c r="B57" s="4">
+        <v>6.7622354908574822</v>
+      </c>
+      <c r="C57" s="4">
+        <v>3.3415809057115935E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>285</v>
+      </c>
+      <c r="B58" s="4">
+        <v>6.7712519837207061</v>
+      </c>
+      <c r="C58" s="4">
+        <v>3.0900919727134893E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>290</v>
+      </c>
+      <c r="B59" s="4">
+        <v>6.7734490114936277</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3.2510599150021746E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>295</v>
+      </c>
+      <c r="B60" s="4">
+        <v>6.7967774962301384</v>
+      </c>
+      <c r="C60" s="4">
+        <v>3.2149156641332589E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16" thickBot="1">
+      <c r="A61" s="2">
+        <v>300</v>
+      </c>
+      <c r="B61" s="7">
+        <v>6.7993661496351123</v>
+      </c>
+      <c r="C61" s="7">
+        <v>4.0457956767497499E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>5.90443426775823</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2.7216626533465901E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.9049261090891596</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4.1177366181800196E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.9130238797557899</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.9950852937683098E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.9343807713897796</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.1167893088300597E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.9636439033605297</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.6832955364435499E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.01264833810865</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.7738053879355001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6.0569123812916503</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.5997445050487999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.1066963476860199</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4.1519290892596601E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.1560217414365903</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.3095586106180299E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.2048775797934903</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4.04190372133163E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6.2480845268543499</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3.7361847855865202E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6.2880239995454401</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3.1795785524548897E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6.3193773975791698</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.7883701495438801E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6.3482392224964199</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.52654468243254E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6.3697059591918102</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.14514577634548E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6.3859562628136803</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.76490928130183E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6.3991878175000103</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.60217207553448E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6.4113677924808403</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.2500028499397299E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6.4215491363466803</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9.1416538103160794E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.4306579768043903</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9.1102720759860499E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6.4395041646526101</v>
+      </c>
+      <c r="C21" s="5">
+        <v>9.8742019927077294E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>105</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6.4472290371508203</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.19710112845028E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6.4558247499427903</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.4606744691354E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>115</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6.4617168218533196</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.7852376843285001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>120</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6.4686232125770999</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.0132315834154701E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>125</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6.4752983208407899</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.1955038143667598E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>130</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6.5039517243309</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.7283023892463001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>135</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6.5131226224071597</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.1394880534198999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>140</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6.5204299979190603</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.3317998528736901E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>145</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.5123207747904202</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.73379493239603E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>150</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6.5389707697051298</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.9701390598805201E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>155</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6.5486539033625997</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3.25970361740852E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>160</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6.5575777230007901</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3.4461558907291599E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>165</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.5475758550476097</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3.4457949144510697E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>170</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6.5726267708371804</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3.6102909604263198E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>175</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6.5785047052215404</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3.9012104461541602E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>180</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6.5858355783359803</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3.9196910304742101E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>185</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6.5741980099651203</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3.70883228804504E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>190</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6.6011865276062904</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4.0950971766306202E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>195</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6.6072204966383499</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4.1375829767730798E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>200</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.6136349771198901</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4.3207658643133001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>205</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.5991882102298396</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4.08092816779718E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>210</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6.62781003533813</v>
+      </c>
+      <c r="C43" s="5">
+        <v>4.3654458642256498E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>215</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6.6304746403962902</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4.4264126631926602E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>220</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6.6343560805691997</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4.5632222350588898E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>225</v>
+      </c>
+      <c r="B46" s="3">
+        <v>6.6143195462713003</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4.65882085898527E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>230</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6.6458740876888802</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4.5771947208030003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>235</v>
+      </c>
+      <c r="B48" s="3">
+        <v>6.6486281513359096</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4.5280415044116902E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>240</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6.6514631124083401</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4.5960951802437797E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>245</v>
+      </c>
+      <c r="B50" s="3">
+        <v>6.6232070371572798</v>
+      </c>
+      <c r="C50" s="5">
+        <v>5.2947960437100101E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>250</v>
+      </c>
+      <c r="B51" s="3">
+        <v>6.6631035702130603</v>
+      </c>
+      <c r="C51" s="5">
+        <v>4.6923005855717202E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>255</v>
+      </c>
+      <c r="B52" s="3">
+        <v>6.6662737211295804</v>
+      </c>
+      <c r="C52" s="5">
+        <v>4.6053446541541102E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>260</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6.66522939596139</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4.2597207088455102E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>265</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6.6288973360497501</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5.3567224043659802E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>270</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6.6739508914726198</v>
+      </c>
+      <c r="C55" s="5">
+        <v>4.35731780404367E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>275</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6.67554921235834</v>
+      </c>
+      <c r="C56" s="5">
+        <v>4.2605026585041797E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>280</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6.6803669273091399</v>
+      </c>
+      <c r="C57" s="5">
+        <v>4.2558815955661002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>285</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6.6470031119372903</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5.13639882263493E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>290</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6.6892378057265196</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4.4213169206649E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>295</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6.6937870790695104</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4.4528584985272499E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16" thickBot="1">
+      <c r="A61" s="2">
+        <v>300</v>
+      </c>
+      <c r="B61" s="6">
+        <v>6.6961985029302404</v>
+      </c>
+      <c r="C61" s="8">
+        <v>4.5304497132723699E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>